--- a/Hardware/LED_Matrix_3-0_BOM.xlsx
+++ b/Hardware/LED_Matrix_3-0_BOM.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanortaylor/Documents/GitHub/LED_Matrix/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACEB180D-A4D4-724E-A136-7674376C8F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AC5EC7-D784-6C48-933D-C4A6F5E8C0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{CBCE60BC-0067-4A82-873C-C47F583079C9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{CBCE60BC-0067-4A82-873C-C47F583079C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
   <si>
     <t>Part number</t>
   </si>
@@ -468,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -530,16 +531,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -580,6 +581,42 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD9514A-9B29-435C-BF48-54525C97080F}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1613,21 +1650,439 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1038546-AE40-CA49-8D3C-10000581A8AE}">
+  <dimension ref="B2:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="B3:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11">
+        <v>256</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" ref="E4:E12" si="0">D4*$C$2</f>
+        <v>768</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L4" s="45">
+        <f t="shared" ref="L4:L12" si="1">D4*K4</f>
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>256</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="46">
+        <f t="shared" si="1"/>
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="L6" s="47">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="38">
+        <v>1</v>
+      </c>
+      <c r="E7" s="38">
+        <f t="shared" ref="E7:E9" si="2">D7*$C$2</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0.81</v>
+      </c>
+      <c r="L7" s="48">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="L8" s="47">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="40">
+        <v>0.41</v>
+      </c>
+      <c r="L9" s="48">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="16">
+        <v>22122044</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.28</v>
+      </c>
+      <c r="L10" s="47">
+        <f t="shared" si="1"/>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="40">
+        <v>2.31</v>
+      </c>
+      <c r="L11" s="48">
+        <f>K11*D11</f>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="B12" s="41">
+        <v>2177961041</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="42">
+        <v>1</v>
+      </c>
+      <c r="E12" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="44">
+        <v>2.87</v>
+      </c>
+      <c r="L12" s="49">
+        <f t="shared" si="1"/>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="2">
+        <f>SUM(L4:L12)</f>
+        <v>187.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{A198F935-7EF9-3C43-BEBB-2B2F65DF2245}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{CDB36AC7-985F-454A-95B9-71F3335E4F91}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{7FAB46E4-EC52-E043-8307-5B02153BBB19}"/>
+    <hyperlink ref="B10" r:id="rId4" display="https://www.digikey.com/en/products/detail/molex/0022122044/172037?s=N4IgTCBcDaIOoFkwHYCMBmAtAOQCIgF0BfIA" xr:uid="{F7627A80-47BE-BC46-BD2A-C6433D64E25C}"/>
+    <hyperlink ref="B12" r:id="rId5" display="https://www.digikey.com/en/products/detail/molex/2177961041/14638035?s=N4IgTCBcDaIJwAYEFowEYDsG4DY0IBY1kA5AERAF0BfIA" xr:uid="{AD094BC5-6ECF-3147-A83F-A8021796D656}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{E073E61D-C5E2-4742-8CBB-D2492CA4F9AD}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{C03CE15C-FEA4-514A-8AE4-AE2C906CC951}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{C70BDB8A-DCD4-BC4B-AA38-E174AF3326AB}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{85219691-9740-8F4A-9985-B4EF5A4420B2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId10"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ba1fd6c3-18a5-4ad5-8874-cc8651459af8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ba1fd6c3-18a5-4ad5-8874-cc8651459af8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1852,14 +2307,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23CEE53E-8C79-44C3-9A5B-668821A655FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8B49F70-5F7A-4E2F-80DA-5D6488B232AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1872,6 +2319,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="ba1fd6c3-18a5-4ad5-8874-cc8651459af8"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23CEE53E-8C79-44C3-9A5B-668821A655FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
